--- a/Codes/Prueba.xlsx
+++ b/Codes/Prueba.xlsx
@@ -427,11 +427,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>2</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Rango</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre</t>
+        </is>
       </c>
     </row>
     <row r="2">

--- a/Codes/Prueba.xlsx
+++ b/Codes/Prueba.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nueva hoja" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hoja dos" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,6 +29,10 @@
     <font>
       <b val="1"/>
       <color rgb="003D33FF"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="003d33ff"/>
     </font>
   </fonts>
   <fills count="2">
@@ -50,9 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1233,4 +1239,138 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Rango</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Nombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36"/>
+    <row r="37"/>
+    <row r="38"/>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56"/>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59"/>
+    <row r="60"/>
+    <row r="61"/>
+    <row r="62"/>
+    <row r="63"/>
+    <row r="64"/>
+    <row r="65"/>
+    <row r="66"/>
+    <row r="67"/>
+    <row r="68"/>
+    <row r="69"/>
+    <row r="70"/>
+    <row r="71"/>
+    <row r="72"/>
+    <row r="73"/>
+    <row r="74"/>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77"/>
+    <row r="78"/>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82"/>
+    <row r="83"/>
+    <row r="84"/>
+    <row r="85"/>
+    <row r="86"/>
+    <row r="87"/>
+    <row r="88"/>
+    <row r="89"/>
+    <row r="90"/>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94"/>
+    <row r="95"/>
+    <row r="96"/>
+    <row r="97"/>
+    <row r="98"/>
+    <row r="99"/>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>